--- a/员工信息维护.xlsx
+++ b/员工信息维护.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dingbin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dingbin/Workspaces/python/salesPic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="员工信息维护" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="155">
   <si>
     <t>任职组织全称</t>
   </si>
@@ -358,218 +358,165 @@
     <t>江春艳</t>
   </si>
   <si>
-    <t>营销中心_国际贸易部_平台运营部</t>
-  </si>
-  <si>
-    <t>营销中心_国际贸易部_开发一区</t>
-  </si>
-  <si>
     <t>开发一区经理</t>
   </si>
   <si>
     <t>开发一区部长</t>
   </si>
   <si>
-    <t>营销中心_国际贸易部_开发二区</t>
-  </si>
-  <si>
     <t>开发二区经理</t>
   </si>
   <si>
     <t>开发二区部长</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>营销中心_内贸开发部_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开发本部</t>
-    </r>
-  </si>
-  <si>
-    <t>营销中心_内贸开发部_开发一部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸开发部_开发二部</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>营销中心_内贸开发部_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开发三部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>营销中心_内贸开发部_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开发四部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>营销中心_内贸开发部_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开发五部</t>
-    </r>
-  </si>
-  <si>
     <t>内贸运营总监</t>
   </si>
   <si>
-    <t>营销中心_内贸运营部_运营一部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营二部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营三部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营四部</t>
-  </si>
-  <si>
     <t>廖宝</t>
   </si>
   <si>
-    <t>营销中心_内贸运营部_运营五部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营六部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营七部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营八部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营九部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营十一部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_运营十部</t>
-  </si>
-  <si>
-    <t>营销中心_内贸运营部_保健品项目部</t>
-  </si>
-  <si>
     <t>保健品经理</t>
   </si>
   <si>
-    <t>营销中心_内贸运营部_联合直营</t>
-  </si>
-  <si>
     <t>半导体激光治疗仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红蓝光治疗仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>半导体激光血氧治疗仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>医用分子筛制氧机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>毫米波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辅销品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保健品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际贸易部_平台运营部</t>
+  </si>
+  <si>
+    <t>国际贸易部_开发一区</t>
+  </si>
+  <si>
+    <t>国际贸易部_开发二区</t>
+  </si>
+  <si>
+    <t>内贸开发部_开发本部</t>
+  </si>
+  <si>
+    <t>内贸开发部_开发一部</t>
+  </si>
+  <si>
+    <t>内贸开发部_开发二部</t>
+  </si>
+  <si>
+    <t>内贸开发部_开发三部</t>
+  </si>
+  <si>
+    <t>内贸开发部_开发四部</t>
+  </si>
+  <si>
+    <t>内贸开发部_开发五部</t>
+  </si>
+  <si>
+    <t>内贸运营部_内贸运营本部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营一部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营二部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营三部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营四部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营五部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营六部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营七部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营八部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营九部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营十一部</t>
+  </si>
+  <si>
+    <t>内贸运营部_运营十部</t>
+  </si>
+  <si>
+    <t>内贸运营部_保健品项目部</t>
+  </si>
+  <si>
+    <t>内贸运营部_联合直营</t>
+  </si>
+  <si>
+    <t>商学院_专家组</t>
+  </si>
+  <si>
+    <t>市场服务部_健康管理部</t>
+  </si>
+  <si>
+    <t>市场服务部_客户服务部_客服</t>
+  </si>
+  <si>
+    <t>市场服务部_客户服务部_售后</t>
+  </si>
+  <si>
+    <t>市场服务部_市场本部</t>
+  </si>
+  <si>
+    <t>市场服务部_营销策划部</t>
+  </si>
+  <si>
+    <t>营销本部</t>
+  </si>
+  <si>
+    <t>任职组织全称</t>
+    <rPh sb="5" eb="6">
+      <t>tqi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -603,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -611,9 +558,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -894,7 +838,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -905,9 +849,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1463,7 +1407,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1473,15 +1417,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1492,15 +1436,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>109</v>
+      <c r="C2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1508,10 +1452,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1519,10 +1463,10 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1530,10 +1474,10 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1541,10 +1485,10 @@
         <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1552,10 +1496,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1563,10 +1507,10 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1574,10 +1518,10 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1585,10 +1529,10 @@
         <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1596,10 +1540,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1609,8 +1553,8 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>116</v>
+      <c r="C12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1620,8 +1564,8 @@
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>117</v>
+      <c r="C13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1631,8 +1575,8 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>118</v>
+      <c r="C14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1642,8 +1586,8 @@
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>119</v>
+      <c r="C15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1653,8 +1597,8 @@
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>120</v>
+      <c r="C16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1664,8 +1608,8 @@
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>121</v>
+      <c r="C17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -1673,10 +1617,10 @@
         <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -1686,8 +1630,8 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>123</v>
+      <c r="C19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -1697,8 +1641,8 @@
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>124</v>
+      <c r="C20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -1708,19 +1652,19 @@
       <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>125</v>
+      <c r="C21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>126</v>
+      <c r="C22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -1730,8 +1674,8 @@
       <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>128</v>
+      <c r="C23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -1741,8 +1685,8 @@
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>129</v>
+      <c r="C24" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1752,8 +1696,8 @@
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>130</v>
+      <c r="C25" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1763,8 +1707,8 @@
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>131</v>
+      <c r="C26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1774,8 +1718,8 @@
       <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
+      <c r="C27" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1785,8 +1729,8 @@
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>133</v>
+      <c r="C28" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1796,8 +1740,8 @@
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>134</v>
+      <c r="C29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1805,10 +1749,10 @@
         <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1816,10 +1760,10 @@
         <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1827,8 +1771,8 @@
         <v>40</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>137</v>
+      <c r="C32" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1839,7 +1783,7 @@
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1850,7 +1794,7 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1861,7 +1805,7 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1872,7 +1816,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1883,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1894,7 +1838,7 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1905,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1916,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1926,8 +1870,8 @@
       <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
+      <c r="C41" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1938,7 +1882,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1949,7 +1893,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1960,7 +1904,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1971,7 +1915,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1982,7 +1926,7 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1993,11 +1937,11 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2007,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2018,46 +1962,46 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>